--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -410,15 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,10 +422,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +552,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -703,11 +702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189931904"/>
-        <c:axId val="189933440"/>
+        <c:axId val="200132864"/>
+        <c:axId val="200138752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189931904"/>
+        <c:axId val="200132864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,7 +715,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189933440"/>
+        <c:crossAx val="200138752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -724,7 +723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189933440"/>
+        <c:axId val="200138752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -748,7 +747,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -758,7 +756,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="189931904"/>
+        <c:crossAx val="200132864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -771,7 +769,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -816,7 +813,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -969,11 +965,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196513152"/>
-        <c:axId val="203965568"/>
+        <c:axId val="205387264"/>
+        <c:axId val="205388800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196513152"/>
+        <c:axId val="205387264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +978,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203965568"/>
+        <c:crossAx val="205388800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -990,7 +986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203965568"/>
+        <c:axId val="205388800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1014,7 +1010,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1024,7 +1019,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="196513152"/>
+        <c:crossAx val="205387264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1037,7 +1032,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1657,22 +1651,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="3"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -3959,7 +3953,7 @@
   <dimension ref="A1:AMK52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3971,21 +3965,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="6"/>
       <c r="M1" s="3"/>
       <c r="N1" s="2"/>
@@ -4227,9 +4221,7 @@
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="L6" s="11"/>
       <c r="M6" s="11" t="s">
         <v>17</v>
       </c>
@@ -4250,7 +4242,7 @@
     </row>
     <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="11">
@@ -4297,7 +4289,7 @@
     </row>
     <row r="8" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="11">
@@ -4344,7 +4336,7 @@
     </row>
     <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="11">
@@ -4627,8 +4619,8 @@
       <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="11">
@@ -5515,27 +5507,27 @@
         <v>54</v>
       </c>
       <c r="D44" s="11">
-        <f>SUM(D3:D37)</f>
+        <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
         <v>45</v>
       </c>
       <c r="E44" s="12">
-        <f>SUM(E3:E37)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="F44" s="11">
-        <f>SUM(F3:F37)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="G44" s="11">
-        <f>SUM(G3:G37)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H44" s="11">
-        <f>SUM(H3:H37)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I44" s="11">
-        <f>SUM(I3:I37)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="J44" s="5"/>
@@ -5601,7 +5593,7 @@
         <f>C46 - C49</f>
         <v>45</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="17">
         <f>D46 - C49</f>
         <v>36</v>
       </c>

--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,9 +407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -702,11 +699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200132864"/>
-        <c:axId val="200138752"/>
+        <c:axId val="175920256"/>
+        <c:axId val="175921792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200132864"/>
+        <c:axId val="175920256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +712,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200138752"/>
+        <c:crossAx val="175921792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -723,7 +720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200138752"/>
+        <c:axId val="175921792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -756,7 +753,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="200132864"/>
+        <c:crossAx val="175920256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -881,7 +878,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,11 +962,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205387264"/>
-        <c:axId val="205388800"/>
+        <c:axId val="176017792"/>
+        <c:axId val="176019328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205387264"/>
+        <c:axId val="176017792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +975,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205388800"/>
+        <c:crossAx val="176019328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -986,7 +983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205388800"/>
+        <c:axId val="176019328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1019,7 +1016,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="205387264"/>
+        <c:crossAx val="176017792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1651,22 +1648,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="3"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -3953,7 +3950,7 @@
   <dimension ref="A1:AMK52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3965,21 +3962,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="6"/>
       <c r="M1" s="3"/>
       <c r="N1" s="2"/>
@@ -4025,16 +4022,16 @@
       <c r="I2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="K2" s="11" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="11" t="s">
         <v>50</v>
       </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -4078,12 +4075,12 @@
       <c r="I3" s="11">
         <v>0</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -4125,12 +4122,12 @@
       <c r="I4" s="11">
         <v>0</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -4172,12 +4169,12 @@
       <c r="I5" s="11">
         <v>3</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -4219,12 +4216,12 @@
       <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -4242,7 +4239,7 @@
     </row>
     <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="11">
@@ -4266,12 +4263,12 @@
       <c r="I7" s="11">
         <v>3</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -4289,7 +4286,7 @@
     </row>
     <row r="8" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="11">
@@ -4313,12 +4310,12 @@
       <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -4336,7 +4333,7 @@
     </row>
     <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="11">
@@ -4360,12 +4357,12 @@
       <c r="I9" s="11">
         <v>0</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -4409,12 +4406,12 @@
       <c r="I10" s="11">
         <v>0</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -4456,12 +4453,12 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -4503,12 +4500,12 @@
       <c r="I12" s="11">
         <v>0</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -4548,14 +4545,14 @@
         <v>3</v>
       </c>
       <c r="I13" s="11">
-        <v>3</v>
-      </c>
-      <c r="J13" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="11"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -4595,14 +4592,14 @@
         <v>1</v>
       </c>
       <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="11"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -4619,8 +4616,8 @@
       <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="11">
@@ -4644,12 +4641,12 @@
       <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -4693,12 +4690,12 @@
       <c r="I16" s="11">
         <v>4</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="2"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -4724,10 +4721,10 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -4753,10 +4750,10 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -4782,10 +4779,10 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -4811,10 +4808,10 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -4840,10 +4837,10 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -4869,10 +4866,10 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -4898,10 +4895,10 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -4927,10 +4924,10 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="M24" s="2"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -4956,10 +4953,10 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -4985,10 +4982,10 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -5014,10 +5011,10 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="M27" s="2"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -5043,10 +5040,10 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="5"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="2"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -5072,10 +5069,10 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="5"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -5101,10 +5098,10 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -5130,10 +5127,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -5159,10 +5156,10 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="M32" s="2"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -5188,10 +5185,10 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -5217,10 +5214,10 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="3"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -5246,10 +5243,10 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="M35" s="2"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -5275,10 +5272,10 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+      <c r="M36" s="2"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -5304,10 +5301,10 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="M37" s="2"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -5333,10 +5330,10 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -5362,10 +5359,10 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="M39" s="2"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -5391,10 +5388,10 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="3"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+      <c r="M40" s="2"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -5420,10 +5417,10 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="3"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
+      <c r="M41" s="2"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -5449,10 +5446,10 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="3"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
+      <c r="M42" s="2"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -5506,29 +5503,29 @@
         <f>SUM(C3:C29)</f>
         <v>54</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="16">
         <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
         <v>45</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="16">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="16">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5556,11 +5553,11 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -5593,7 +5590,7 @@
         <f>C46 - C49</f>
         <v>45</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="9">
         <f>D46 - C49</f>
         <v>36</v>
       </c>

--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Nombre d'heures par jour à faire</t>
   </si>
   <si>
-    <t>Avions et bâteaux (Optionnel)</t>
-  </si>
-  <si>
     <t>Nombre de jours sans compter J1</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>Coder les plantes</t>
   </si>
   <si>
-    <t>Terrain(herbes, mer, sables)</t>
-  </si>
-  <si>
     <t>Affichage des forêts</t>
   </si>
   <si>
@@ -245,6 +239,21 @@
   </si>
   <si>
     <t>Coder les humains</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir le monde</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir des agents</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir des changement de climat</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir des avions et des bâteaux (Optionnel)</t>
   </si>
 </sst>
 </file>
@@ -549,6 +558,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -699,11 +709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175920256"/>
-        <c:axId val="175921792"/>
+        <c:axId val="183063680"/>
+        <c:axId val="183065216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175920256"/>
+        <c:axId val="183063680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,7 +722,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175921792"/>
+        <c:crossAx val="183065216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -720,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175921792"/>
+        <c:axId val="183065216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -744,6 +754,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -753,7 +764,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="175920256"/>
+        <c:crossAx val="183063680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -766,6 +777,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -810,6 +822,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -878,7 +891,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,11 +975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176017792"/>
-        <c:axId val="176019328"/>
+        <c:axId val="183161216"/>
+        <c:axId val="183162752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176017792"/>
+        <c:axId val="183161216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +988,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176019328"/>
+        <c:crossAx val="183162752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -983,7 +996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176019328"/>
+        <c:axId val="183162752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1007,6 +1020,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1016,7 +1030,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="176017792"/>
+        <c:crossAx val="183161216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1029,6 +1043,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1407,12 +1422,12 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="1025" width="12.140625" style="1" customWidth="1"/>
   </cols>
@@ -1447,7 +1462,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7">
         <v>50</v>
@@ -1463,7 +1478,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="B4" s="7">
         <v>40</v>
@@ -1479,7 +1494,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -1495,7 +1510,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7">
         <v>10</v>
@@ -1636,7 +1651,7 @@
   <dimension ref="A1:AMK52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,40 +1697,40 @@
     </row>
     <row r="2" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="11" t="s">
@@ -3769,7 +3784,7 @@
     <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="9">
         <v>9</v>
@@ -3950,7 +3965,7 @@
   <dimension ref="A1:AMK52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,7 +4011,7 @@
     </row>
     <row r="2" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>5</v>
@@ -4052,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11">
         <v>3</v>
@@ -4099,7 +4114,7 @@
     <row r="4" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11">
         <v>3</v>
@@ -4146,7 +4161,7 @@
     <row r="5" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11">
         <v>3</v>
@@ -4167,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>17</v>
@@ -4193,7 +4208,7 @@
     <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="11">
         <v>3</v>
@@ -4240,7 +4255,7 @@
     <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
@@ -4261,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>17</v>
@@ -4287,7 +4302,7 @@
     <row r="8" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
@@ -4524,7 +4539,7 @@
     <row r="13" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="11">
         <v>8</v>
@@ -4688,7 +4703,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
@@ -5525,7 +5540,7 @@
       </c>
       <c r="I44" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5661,7 +5676,7 @@
     <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="9">
         <v>6</v>

--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="Burn down chart All" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint Backlog 1" sheetId="4" r:id="rId4"/>
     <sheet name="Burn down chart 1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint Backlog 2" sheetId="6" r:id="rId6"/>
+    <sheet name="Burn down chart 2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -254,6 +256,36 @@
   </si>
   <si>
     <t>L'utilisateur veut voir des avions et des bâteaux (Optionnel)</t>
+  </si>
+  <si>
+    <t>Météo</t>
+  </si>
+  <si>
+    <t>Code les volcans</t>
+  </si>
+  <si>
+    <t>Coder les laves</t>
+  </si>
+  <si>
+    <t>Affichage des volcans et laves</t>
+  </si>
+  <si>
+    <t>Coder le feu</t>
+  </si>
+  <si>
+    <t>Affichage du feu</t>
+  </si>
+  <si>
+    <t>Coder les prédateurs et les proies</t>
+  </si>
+  <si>
+    <t>Vérifier les affichages</t>
+  </si>
+  <si>
+    <t>Coder le magma + obsidienne</t>
+  </si>
+  <si>
+    <t>Affichage du magma + obsidienne</t>
   </si>
 </sst>
 </file>
@@ -381,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,6 +466,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,6 +476,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,34 +656,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>118</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,34 +703,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>118</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104.88888888888889</c:v>
+                  <c:v>48.888888888888886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.777777777777771</c:v>
+                  <c:v>42.777777777777771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.666666666666657</c:v>
+                  <c:v>36.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.555555555555543</c:v>
+                  <c:v>30.555555555555546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.444444444444429</c:v>
+                  <c:v>24.444444444444436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.333333333333314</c:v>
+                  <c:v>18.333333333333325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.222222222222204</c:v>
+                  <c:v>12.222222222222214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.111111111111093</c:v>
+                  <c:v>6.1111111111111036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.7763568394002505E-14</c:v>
+                  <c:v>-7.1054273576010019E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,11 +747,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183063680"/>
-        <c:axId val="183065216"/>
+        <c:axId val="171201664"/>
+        <c:axId val="171203200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183063680"/>
+        <c:axId val="171201664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +760,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183065216"/>
+        <c:crossAx val="171203200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -730,7 +768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183065216"/>
+        <c:axId val="171203200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -764,7 +802,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="183063680"/>
+        <c:crossAx val="171201664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -975,11 +1013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183161216"/>
-        <c:axId val="183162752"/>
+        <c:axId val="180277632"/>
+        <c:axId val="180279168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183161216"/>
+        <c:axId val="180277632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +1026,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183162752"/>
+        <c:crossAx val="180279168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -996,7 +1034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183162752"/>
+        <c:axId val="180279168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1030,7 +1068,273 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="183161216"/>
+        <c:crossAx val="180277632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Burn down chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Réel</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint Backlog 1'!$C$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Jour 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jour 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jour 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jour 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jour 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jour 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jour 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Backlog 2'!$C$44:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Idéal</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint Backlog 1'!$C$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Jour 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jour 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jour 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jour 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jour 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jour 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jour 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Backlog 2'!$C$46:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="188099200"/>
+        <c:axId val="188105088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="188099200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188105088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="188105088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Heures</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525"/>
+        </c:spPr>
+        <c:crossAx val="188099200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1109,6 +1413,43 @@
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1422,12 +1763,12 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="62.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="1025" width="12.140625" style="1" customWidth="1"/>
   </cols>
@@ -1651,7 +1992,7 @@
   <dimension ref="A1:AMK52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,22 +2004,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="3"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -1767,28 +2108,28 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
         <v>0</v>
       </c>
       <c r="M3" s="3"/>
@@ -1814,35 +2155,35 @@
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="17">
         <v>6</v>
       </c>
-      <c r="D4" s="11">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11">
-        <v>6</v>
-      </c>
-      <c r="H4" s="11">
-        <v>6</v>
-      </c>
-      <c r="I4" s="11">
-        <v>6</v>
-      </c>
-      <c r="J4" s="11">
-        <v>6</v>
-      </c>
-      <c r="K4" s="11">
-        <v>6</v>
-      </c>
-      <c r="L4" s="11">
-        <v>6</v>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="11"/>
@@ -1867,35 +2208,35 @@
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="17">
         <v>6</v>
       </c>
-      <c r="D5" s="11">
-        <v>6</v>
-      </c>
-      <c r="E5" s="11">
-        <v>6</v>
-      </c>
-      <c r="F5" s="11">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11">
-        <v>6</v>
-      </c>
-      <c r="H5" s="11">
-        <v>6</v>
-      </c>
-      <c r="I5" s="11">
-        <v>6</v>
-      </c>
-      <c r="J5" s="11">
-        <v>6</v>
-      </c>
-      <c r="K5" s="11">
-        <v>6</v>
-      </c>
-      <c r="L5" s="11">
-        <v>6</v>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="11"/>
@@ -1920,34 +2261,34 @@
       <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="17">
         <v>2</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
         <v>0</v>
       </c>
       <c r="M6" s="3"/>
@@ -1973,34 +2314,34 @@
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
         <v>0</v>
       </c>
       <c r="M7" s="3"/>
@@ -2026,35 +2367,35 @@
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11">
-        <v>6</v>
-      </c>
-      <c r="F8" s="11">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11">
-        <v>6</v>
-      </c>
-      <c r="H8" s="11">
-        <v>6</v>
-      </c>
-      <c r="I8" s="11">
-        <v>6</v>
-      </c>
-      <c r="J8" s="11">
-        <v>6</v>
-      </c>
-      <c r="K8" s="11">
-        <v>6</v>
-      </c>
-      <c r="L8" s="11">
-        <v>6</v>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="11" t="s">
@@ -2079,35 +2420,35 @@
       <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="11">
-        <v>6</v>
-      </c>
-      <c r="D9" s="11">
-        <v>6</v>
-      </c>
-      <c r="E9" s="11">
-        <v>6</v>
-      </c>
-      <c r="F9" s="11">
-        <v>6</v>
-      </c>
-      <c r="G9" s="11">
-        <v>6</v>
-      </c>
-      <c r="H9" s="11">
-        <v>6</v>
-      </c>
-      <c r="I9" s="11">
-        <v>6</v>
-      </c>
-      <c r="J9" s="11">
-        <v>6</v>
-      </c>
-      <c r="K9" s="11">
-        <v>6</v>
-      </c>
-      <c r="L9" s="11">
-        <v>6</v>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="11" t="s">
@@ -2132,35 +2473,35 @@
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11">
-        <v>3</v>
-      </c>
-      <c r="D10" s="11">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3</v>
-      </c>
-      <c r="H10" s="11">
-        <v>3</v>
-      </c>
-      <c r="I10" s="11">
-        <v>3</v>
-      </c>
-      <c r="J10" s="11">
-        <v>3</v>
-      </c>
-      <c r="K10" s="11">
-        <v>3</v>
-      </c>
-      <c r="L10" s="11">
-        <v>3</v>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="11" t="s">
@@ -2185,35 +2526,35 @@
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="11">
-        <v>6</v>
-      </c>
-      <c r="D11" s="11">
-        <v>6</v>
-      </c>
-      <c r="E11" s="11">
-        <v>6</v>
-      </c>
-      <c r="F11" s="11">
-        <v>6</v>
-      </c>
-      <c r="G11" s="11">
-        <v>6</v>
-      </c>
-      <c r="H11" s="11">
-        <v>6</v>
-      </c>
-      <c r="I11" s="11">
-        <v>6</v>
-      </c>
-      <c r="J11" s="11">
-        <v>6</v>
-      </c>
-      <c r="K11" s="11">
-        <v>6</v>
-      </c>
-      <c r="L11" s="11">
-        <v>6</v>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="11" t="s">
@@ -2238,35 +2579,35 @@
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11">
-        <v>6</v>
-      </c>
-      <c r="E12" s="11">
-        <v>6</v>
-      </c>
-      <c r="F12" s="11">
-        <v>6</v>
-      </c>
-      <c r="G12" s="11">
-        <v>6</v>
-      </c>
-      <c r="H12" s="11">
-        <v>6</v>
-      </c>
-      <c r="I12" s="11">
-        <v>6</v>
-      </c>
-      <c r="J12" s="11">
-        <v>6</v>
-      </c>
-      <c r="K12" s="11">
-        <v>6</v>
-      </c>
-      <c r="L12" s="11">
-        <v>6</v>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="11" t="s">
@@ -2291,35 +2632,35 @@
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11">
-        <v>6</v>
-      </c>
-      <c r="D13" s="11">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11">
-        <v>6</v>
-      </c>
-      <c r="F13" s="11">
-        <v>6</v>
-      </c>
-      <c r="G13" s="11">
-        <v>6</v>
-      </c>
-      <c r="H13" s="11">
-        <v>6</v>
-      </c>
-      <c r="I13" s="11">
-        <v>6</v>
-      </c>
-      <c r="J13" s="11">
-        <v>6</v>
-      </c>
-      <c r="K13" s="11">
-        <v>6</v>
-      </c>
-      <c r="L13" s="11">
-        <v>6</v>
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="11" t="s">
@@ -2344,35 +2685,35 @@
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="11">
-        <v>7</v>
-      </c>
-      <c r="D14" s="11">
-        <v>7</v>
-      </c>
-      <c r="E14" s="11">
-        <v>7</v>
-      </c>
-      <c r="F14" s="11">
-        <v>7</v>
-      </c>
-      <c r="G14" s="11">
-        <v>7</v>
-      </c>
-      <c r="H14" s="11">
-        <v>7</v>
-      </c>
-      <c r="I14" s="11">
-        <v>7</v>
-      </c>
-      <c r="J14" s="11">
-        <v>7</v>
-      </c>
-      <c r="K14" s="11">
-        <v>7</v>
-      </c>
-      <c r="L14" s="11">
-        <v>7</v>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="11" t="s">
@@ -2397,35 +2738,35 @@
       <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11">
-        <v>5</v>
-      </c>
-      <c r="D15" s="11">
-        <v>5</v>
-      </c>
-      <c r="E15" s="11">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11">
-        <v>5</v>
-      </c>
-      <c r="H15" s="11">
-        <v>5</v>
-      </c>
-      <c r="I15" s="11">
-        <v>5</v>
-      </c>
-      <c r="J15" s="11">
-        <v>5</v>
-      </c>
-      <c r="K15" s="11">
-        <v>5</v>
-      </c>
-      <c r="L15" s="11">
-        <v>5</v>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="11" t="s">
@@ -2450,35 +2791,35 @@
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="11">
-        <v>4</v>
-      </c>
-      <c r="D16" s="11">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11">
-        <v>4</v>
-      </c>
-      <c r="F16" s="11">
-        <v>4</v>
-      </c>
-      <c r="G16" s="11">
-        <v>4</v>
-      </c>
-      <c r="H16" s="11">
-        <v>4</v>
-      </c>
-      <c r="I16" s="11">
-        <v>4</v>
-      </c>
-      <c r="J16" s="11">
-        <v>4</v>
-      </c>
-      <c r="K16" s="11">
-        <v>4</v>
-      </c>
-      <c r="L16" s="11">
-        <v>4</v>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="11" t="s">
@@ -2503,34 +2844,34 @@
       <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
         <v>0</v>
       </c>
       <c r="M17" s="3"/>
@@ -2558,34 +2899,34 @@
       <c r="B18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="11">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11">
-        <v>4</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
+      <c r="C18" s="17">
+        <v>5</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
         <v>0</v>
       </c>
       <c r="M18" s="3"/>
@@ -2611,34 +2952,34 @@
       <c r="B19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="17">
         <v>5</v>
       </c>
-      <c r="D19" s="11">
-        <v>5</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
         <v>0</v>
       </c>
       <c r="M19" s="3"/>
@@ -2664,34 +3005,34 @@
       <c r="B20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="11">
-        <v>7</v>
-      </c>
-      <c r="D20" s="11">
-        <v>2</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11">
-        <v>0</v>
-      </c>
-      <c r="L20" s="11">
+      <c r="C20" s="17">
+        <v>5</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
         <v>0</v>
       </c>
       <c r="M20" s="3"/>
@@ -2717,35 +3058,35 @@
       <c r="B21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="17">
         <v>8</v>
       </c>
-      <c r="D21" s="11">
-        <v>8</v>
-      </c>
-      <c r="E21" s="11">
-        <v>5</v>
-      </c>
-      <c r="F21" s="11">
-        <v>5</v>
-      </c>
-      <c r="G21" s="11">
-        <v>5</v>
-      </c>
-      <c r="H21" s="11">
-        <v>5</v>
-      </c>
-      <c r="I21" s="11">
-        <v>5</v>
-      </c>
-      <c r="J21" s="11">
-        <v>5</v>
-      </c>
-      <c r="K21" s="11">
-        <v>5</v>
-      </c>
-      <c r="L21" s="11">
-        <v>5</v>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
+        <v>0</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="11"/>
@@ -2770,35 +3111,35 @@
       <c r="B22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="17">
         <v>2</v>
       </c>
-      <c r="D22" s="11">
-        <v>2</v>
-      </c>
-      <c r="E22" s="11">
-        <v>2</v>
-      </c>
-      <c r="F22" s="11">
-        <v>2</v>
-      </c>
-      <c r="G22" s="11">
-        <v>2</v>
-      </c>
-      <c r="H22" s="11">
-        <v>2</v>
-      </c>
-      <c r="I22" s="11">
-        <v>2</v>
-      </c>
-      <c r="J22" s="11">
-        <v>2</v>
-      </c>
-      <c r="K22" s="11">
-        <v>2</v>
-      </c>
-      <c r="L22" s="11">
-        <v>2</v>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="11"/>
@@ -2823,35 +3164,35 @@
       <c r="B23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="17">
         <v>6</v>
       </c>
-      <c r="D23" s="11">
-        <v>6</v>
-      </c>
-      <c r="E23" s="11">
-        <v>6</v>
-      </c>
-      <c r="F23" s="11">
-        <v>6</v>
-      </c>
-      <c r="G23" s="11">
-        <v>6</v>
-      </c>
-      <c r="H23" s="11">
-        <v>6</v>
-      </c>
-      <c r="I23" s="11">
-        <v>6</v>
-      </c>
-      <c r="J23" s="11">
-        <v>6</v>
-      </c>
-      <c r="K23" s="11">
-        <v>6</v>
-      </c>
-      <c r="L23" s="11">
-        <v>6</v>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
+        <v>0</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="11"/>
@@ -2876,35 +3217,35 @@
       <c r="B24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="11">
-        <v>4</v>
-      </c>
-      <c r="D24" s="11">
-        <v>4</v>
-      </c>
-      <c r="E24" s="11">
-        <v>4</v>
-      </c>
-      <c r="F24" s="11">
-        <v>4</v>
-      </c>
-      <c r="G24" s="11">
-        <v>4</v>
-      </c>
-      <c r="H24" s="11">
-        <v>4</v>
-      </c>
-      <c r="I24" s="11">
-        <v>4</v>
-      </c>
-      <c r="J24" s="11">
-        <v>4</v>
-      </c>
-      <c r="K24" s="11">
-        <v>4</v>
-      </c>
-      <c r="L24" s="11">
-        <v>4</v>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="11" t="s">
@@ -2929,35 +3270,35 @@
       <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="11">
-        <v>3</v>
-      </c>
-      <c r="D25" s="11">
-        <v>3</v>
-      </c>
-      <c r="E25" s="11">
-        <v>3</v>
-      </c>
-      <c r="F25" s="11">
-        <v>3</v>
-      </c>
-      <c r="G25" s="11">
-        <v>3</v>
-      </c>
-      <c r="H25" s="11">
-        <v>3</v>
-      </c>
-      <c r="I25" s="11">
-        <v>3</v>
-      </c>
-      <c r="J25" s="11">
-        <v>3</v>
-      </c>
-      <c r="K25" s="11">
-        <v>3</v>
-      </c>
-      <c r="L25" s="11">
-        <v>3</v>
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="11" t="s">
@@ -2984,35 +3325,35 @@
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="11">
-        <v>6</v>
-      </c>
-      <c r="D26" s="11">
-        <v>6</v>
-      </c>
-      <c r="E26" s="11">
-        <v>6</v>
-      </c>
-      <c r="F26" s="11">
-        <v>6</v>
-      </c>
-      <c r="G26" s="11">
-        <v>6</v>
-      </c>
-      <c r="H26" s="11">
-        <v>6</v>
-      </c>
-      <c r="I26" s="11">
-        <v>6</v>
-      </c>
-      <c r="J26" s="11">
-        <v>6</v>
-      </c>
-      <c r="K26" s="11">
-        <v>6</v>
-      </c>
-      <c r="L26" s="11">
-        <v>6</v>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="11" t="s">
@@ -3037,35 +3378,35 @@
       <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="17">
         <v>5</v>
       </c>
-      <c r="D27" s="11">
-        <v>5</v>
-      </c>
-      <c r="E27" s="11">
-        <v>5</v>
-      </c>
-      <c r="F27" s="11">
-        <v>5</v>
-      </c>
-      <c r="G27" s="11">
-        <v>5</v>
-      </c>
-      <c r="H27" s="11">
-        <v>5</v>
-      </c>
-      <c r="I27" s="11">
-        <v>5</v>
-      </c>
-      <c r="J27" s="11">
-        <v>5</v>
-      </c>
-      <c r="K27" s="11">
-        <v>5</v>
-      </c>
-      <c r="L27" s="11">
-        <v>5</v>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="11"/>
@@ -3092,34 +3433,34 @@
       <c r="B28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="11">
-        <v>0</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11">
-        <v>0</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0</v>
-      </c>
-      <c r="L28" s="11">
+      <c r="C28" s="17">
+        <v>0</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
         <v>0</v>
       </c>
       <c r="M28" s="3"/>
@@ -3145,34 +3486,34 @@
       <c r="B29" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="11">
-        <v>0</v>
-      </c>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
+      <c r="C29" s="17">
+        <v>0</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17">
         <v>0</v>
       </c>
       <c r="M29" s="3"/>
@@ -3606,43 +3947,43 @@
       </c>
       <c r="C44" s="11">
         <f>SUM(C3:C29)</f>
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="D44" s="11">
         <f t="shared" ref="D44:L44" si="0">SUM(D3:D37)</f>
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G44" s="11">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I44" s="11">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J44" s="11">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="K44" s="11">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="L44" s="11">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>7</v>
@@ -3698,43 +4039,43 @@
       </c>
       <c r="C46" s="9">
         <f>C44</f>
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="D46" s="9">
         <f>C46 - C49</f>
-        <v>104.88888888888889</v>
+        <v>48.888888888888886</v>
       </c>
       <c r="E46" s="9">
         <f>D46 - C49</f>
-        <v>91.777777777777771</v>
+        <v>42.777777777777771</v>
       </c>
       <c r="F46" s="9">
         <f>E46 - C49</f>
-        <v>78.666666666666657</v>
+        <v>36.666666666666657</v>
       </c>
       <c r="G46" s="9">
         <f>F46 - C49</f>
-        <v>65.555555555555543</v>
+        <v>30.555555555555546</v>
       </c>
       <c r="H46" s="9">
         <f>G46 - C49</f>
-        <v>52.444444444444429</v>
+        <v>24.444444444444436</v>
       </c>
       <c r="I46" s="9">
         <f>H46 - C49</f>
-        <v>39.333333333333314</v>
+        <v>18.333333333333325</v>
       </c>
       <c r="J46" s="9">
         <f>I46 - C49</f>
-        <v>26.222222222222204</v>
+        <v>12.222222222222214</v>
       </c>
       <c r="K46" s="9">
         <f>J46 -C49</f>
-        <v>13.111111111111093</v>
+        <v>6.1111111111111036</v>
       </c>
       <c r="L46" s="9">
         <f>K46 - C49</f>
-        <v>-1.7763568394002505E-14</v>
+        <v>-7.1054273576010019E-15</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -3820,7 +4161,7 @@
       </c>
       <c r="C49" s="9">
         <f>SUM(C44)/C48</f>
-        <v>13.111111111111111</v>
+        <v>6.1111111111111107</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -3964,8 +4305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3977,19 +4318,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="6"/>
@@ -5838,7 +6179,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="H59" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5849,4 +6190,1783 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="1025" width="12.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+    </row>
+    <row r="3" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="17">
+        <v>6</v>
+      </c>
+      <c r="D12" s="17">
+        <v>6</v>
+      </c>
+      <c r="E12" s="17">
+        <v>6</v>
+      </c>
+      <c r="F12" s="17">
+        <v>6</v>
+      </c>
+      <c r="G12" s="17">
+        <v>6</v>
+      </c>
+      <c r="H12" s="17">
+        <v>6</v>
+      </c>
+      <c r="I12" s="17">
+        <v>6</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>3</v>
+      </c>
+      <c r="E13" s="17">
+        <v>3</v>
+      </c>
+      <c r="F13" s="17">
+        <v>3</v>
+      </c>
+      <c r="G13" s="17">
+        <v>3</v>
+      </c>
+      <c r="H13" s="17">
+        <v>3</v>
+      </c>
+      <c r="I13" s="17">
+        <v>3</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="17">
+        <v>6</v>
+      </c>
+      <c r="D14" s="17">
+        <v>6</v>
+      </c>
+      <c r="E14" s="17">
+        <v>6</v>
+      </c>
+      <c r="F14" s="17">
+        <v>6</v>
+      </c>
+      <c r="G14" s="17">
+        <v>6</v>
+      </c>
+      <c r="H14" s="17">
+        <v>6</v>
+      </c>
+      <c r="I14" s="17">
+        <v>6</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="17">
+        <v>2</v>
+      </c>
+      <c r="D15" s="17">
+        <v>2</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>2</v>
+      </c>
+      <c r="H15" s="17">
+        <v>2</v>
+      </c>
+      <c r="I15" s="17">
+        <v>2</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="17">
+        <v>3</v>
+      </c>
+      <c r="D16" s="17">
+        <v>3</v>
+      </c>
+      <c r="E16" s="17">
+        <v>3</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3</v>
+      </c>
+      <c r="G16" s="17">
+        <v>3</v>
+      </c>
+      <c r="H16" s="17">
+        <v>3</v>
+      </c>
+      <c r="I16" s="17">
+        <v>3</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="17">
+        <v>4</v>
+      </c>
+      <c r="G17" s="17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="17">
+        <v>4</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+    </row>
+    <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+    </row>
+    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+    </row>
+    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+    </row>
+    <row r="36" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+    </row>
+    <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="17">
+        <f>SUM(C3:C29)</f>
+        <v>24</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
+        <v>24</v>
+      </c>
+      <c r="E44" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F44" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G44" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H44" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I44" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="9">
+        <f>C44</f>
+        <v>24</v>
+      </c>
+      <c r="D46" s="9">
+        <f>C46 - C49</f>
+        <v>20</v>
+      </c>
+      <c r="E46" s="9">
+        <f>D46 - C49</f>
+        <v>16</v>
+      </c>
+      <c r="F46" s="9">
+        <f>E46 - C49</f>
+        <v>12</v>
+      </c>
+      <c r="G46" s="9">
+        <f>F46 - C49</f>
+        <v>8</v>
+      </c>
+      <c r="H46" s="9">
+        <f>G46 - C49</f>
+        <v>4</v>
+      </c>
+      <c r="I46" s="9">
+        <f>H46 - C49</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="9">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="2:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="9">
+        <f>SUM(C44)/C48</f>
+        <v>4</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="2:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="2:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+    </row>
+    <row r="52" spans="2:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
   <si>
-    <t>Product Backlog</t>
-  </si>
-  <si>
     <t>TAILLE</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>L'utilisateur veut voir des agents</t>
   </si>
   <si>
-    <t>L'utilisateur veut voir des changement de climat</t>
-  </si>
-  <si>
     <t>L'utilisateur veut voir des avions et des bâteaux (Optionnel)</t>
   </si>
   <si>
@@ -282,10 +276,16 @@
     <t>Vérifier les affichages</t>
   </si>
   <si>
-    <t>Coder le magma + obsidienne</t>
-  </si>
-  <si>
-    <t>Affichage du magma + obsidienne</t>
+    <t>L'utilisateur veut voir des changements de climat</t>
+  </si>
+  <si>
+    <t>Affichage fluide des agents</t>
+  </si>
+  <si>
+    <t>Affichage du magma</t>
+  </si>
+  <si>
+    <t>Coder le magma</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,6 +466,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,9 +482,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,7 +599,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -747,11 +749,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171201664"/>
-        <c:axId val="171203200"/>
+        <c:axId val="144943360"/>
+        <c:axId val="144957440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171201664"/>
+        <c:axId val="144943360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,7 +762,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171203200"/>
+        <c:crossAx val="144957440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -768,7 +770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171203200"/>
+        <c:axId val="144957440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -792,7 +794,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -802,7 +803,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="171201664"/>
+        <c:crossAx val="144943360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -815,7 +816,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1013,11 +1013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180277632"/>
-        <c:axId val="180279168"/>
+        <c:axId val="145569280"/>
+        <c:axId val="145570816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180277632"/>
+        <c:axId val="145569280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1026,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180279168"/>
+        <c:crossAx val="145570816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1034,7 +1034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180279168"/>
+        <c:axId val="145570816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1068,7 +1068,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="180277632"/>
+        <c:crossAx val="145569280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1279,11 +1279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188099200"/>
-        <c:axId val="188105088"/>
+        <c:axId val="145314560"/>
+        <c:axId val="145316096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188099200"/>
+        <c:axId val="145314560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1292,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188105088"/>
+        <c:crossAx val="145316096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1300,7 +1300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188105088"/>
+        <c:axId val="145316096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1334,7 +1334,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="188099200"/>
+        <c:crossAx val="145314560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1762,9 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1775,22 +1773,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1803,7 +1801,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="7">
         <v>50</v>
@@ -1813,13 +1811,13 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="7">
         <v>40</v>
@@ -1829,13 +1827,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -1844,14 +1842,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="7">
         <v>10</v>
@@ -1860,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -2004,22 +2002,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="A1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="3"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -2038,50 +2036,50 @@
     </row>
     <row r="2" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="5"/>
@@ -2097,10 +2095,10 @@
     </row>
     <row r="3" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="11">
         <v>3</v>
@@ -2136,7 +2134,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="5"/>
@@ -2153,7 +2151,7 @@
     <row r="4" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="17">
         <v>6</v>
@@ -2188,7 +2186,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="2"/>
@@ -2206,7 +2204,7 @@
     <row r="5" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="17">
         <v>6</v>
@@ -2241,7 +2239,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="2"/>
@@ -2259,7 +2257,7 @@
     <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="17">
         <v>2</v>
@@ -2294,7 +2292,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="2"/>
@@ -2312,7 +2310,7 @@
     <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="17">
         <v>2</v>
@@ -2347,7 +2345,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="2"/>
@@ -2365,7 +2363,7 @@
     <row r="8" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="17">
         <v>0</v>
@@ -2399,7 +2397,7 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -2418,7 +2416,7 @@
     <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -2452,7 +2450,7 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -2471,7 +2469,7 @@
     <row r="10" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
@@ -2505,7 +2503,7 @@
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -2524,7 +2522,7 @@
     <row r="11" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
@@ -2558,7 +2556,7 @@
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -2577,7 +2575,7 @@
     <row r="12" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="17">
         <v>0</v>
@@ -2611,7 +2609,7 @@
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -2630,7 +2628,7 @@
     <row r="13" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="17">
         <v>0</v>
@@ -2664,7 +2662,7 @@
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -2683,7 +2681,7 @@
     <row r="14" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="17">
         <v>0</v>
@@ -2717,7 +2715,7 @@
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -2736,7 +2734,7 @@
     <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="17">
         <v>0</v>
@@ -2770,7 +2768,7 @@
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -2789,7 +2787,7 @@
     <row r="16" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
@@ -2823,7 +2821,7 @@
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -2842,7 +2840,7 @@
     <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="17">
         <v>0</v>
@@ -2876,7 +2874,7 @@
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -2894,10 +2892,10 @@
     </row>
     <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="17">
         <v>5</v>
@@ -2932,7 +2930,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="2"/>
@@ -2950,7 +2948,7 @@
     <row r="19" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="17">
         <v>5</v>
@@ -2985,7 +2983,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="2"/>
@@ -3003,7 +3001,7 @@
     <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="17">
         <v>5</v>
@@ -3038,7 +3036,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="2"/>
@@ -3056,7 +3054,7 @@
     <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="17">
         <v>8</v>
@@ -3091,7 +3089,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="11"/>
       <c r="Q21" s="2"/>
@@ -3109,7 +3107,7 @@
     <row r="22" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="17">
         <v>2</v>
@@ -3144,7 +3142,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="2"/>
@@ -3162,7 +3160,7 @@
     <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="17">
         <v>6</v>
@@ -3197,7 +3195,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="2"/>
@@ -3215,7 +3213,7 @@
     <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="17">
         <v>0</v>
@@ -3249,7 +3247,7 @@
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
@@ -3268,7 +3266,7 @@
     <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="17">
         <v>0</v>
@@ -3302,7 +3300,7 @@
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -3320,10 +3318,10 @@
     </row>
     <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="17">
         <v>0</v>
@@ -3357,7 +3355,7 @@
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -3376,7 +3374,7 @@
     <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="17">
         <v>5</v>
@@ -3411,7 +3409,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="2"/>
@@ -3428,10 +3426,10 @@
     </row>
     <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="17">
         <v>0</v>
@@ -3465,7 +3463,7 @@
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
@@ -3484,7 +3482,7 @@
     <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="17">
         <v>0</v>
@@ -3518,7 +3516,7 @@
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
@@ -3943,7 +3941,7 @@
     <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="11">
         <f>SUM(C3:C29)</f>
@@ -3986,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4035,7 +4033,7 @@
     <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="9">
         <f>C44</f>
@@ -4125,7 +4123,7 @@
     <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="9">
         <v>9</v>
@@ -4157,7 +4155,7 @@
     </row>
     <row r="49" spans="2:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="9">
         <f>SUM(C44)/C48</f>
@@ -4306,7 +4304,7 @@
   <dimension ref="A1:AMK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,22 +4316,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="6"/>
+      <c r="A1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="3"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -4352,40 +4350,40 @@
     </row>
     <row r="2" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -4405,10 +4403,10 @@
     </row>
     <row r="3" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11">
         <v>3</v>
@@ -4434,7 +4432,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -4455,7 +4453,7 @@
     <row r="4" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="11">
         <v>3</v>
@@ -4481,7 +4479,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -4502,7 +4500,7 @@
     <row r="5" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="11">
         <v>3</v>
@@ -4526,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -4549,7 +4547,7 @@
     <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11">
         <v>3</v>
@@ -4575,7 +4573,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -4596,7 +4594,7 @@
     <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
@@ -4620,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -4643,7 +4641,7 @@
     <row r="8" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
@@ -4669,7 +4667,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -4690,7 +4688,7 @@
     <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="11">
         <v>2</v>
@@ -4716,7 +4714,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -4736,10 +4734,10 @@
     </row>
     <row r="10" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11">
         <v>4</v>
@@ -4765,7 +4763,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -4786,7 +4784,7 @@
     <row r="11" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="11">
         <v>5</v>
@@ -4812,7 +4810,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -4833,7 +4831,7 @@
     <row r="12" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C12" s="11">
         <v>5</v>
@@ -4859,7 +4857,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4880,7 +4878,7 @@
     <row r="13" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="11">
         <v>8</v>
@@ -4906,7 +4904,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -4927,7 +4925,7 @@
     <row r="14" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11">
         <v>2</v>
@@ -4953,7 +4951,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4974,7 +4972,7 @@
     <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11">
         <v>6</v>
@@ -5000,7 +4998,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="5"/>
@@ -5020,10 +5018,10 @@
     </row>
     <row r="16" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="11">
         <v>5</v>
@@ -5047,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -5853,7 +5851,7 @@
     <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="11">
         <f>SUM(C3:C29)</f>
@@ -5887,7 +5885,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -5936,7 +5934,7 @@
     <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="9">
         <f>C44</f>
@@ -6017,7 +6015,7 @@
     <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="9">
         <v>6</v>
@@ -6049,7 +6047,7 @@
     </row>
     <row r="49" spans="2:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="9">
         <f>SUM(C44)/C48</f>
@@ -6179,7 +6177,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H59" sqref="A1:XFD1048576"/>
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6197,7 +6195,7 @@
   <dimension ref="A1:AMK52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6209,19 +6207,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="6"/>
@@ -6243,40 +6241,40 @@
     </row>
     <row r="2" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -6296,10 +6294,10 @@
     </row>
     <row r="3" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -6309,7 +6307,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
@@ -6331,8 +6329,8 @@
     </row>
     <row r="4" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="22" t="s">
-        <v>79</v>
+      <c r="B4" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -6342,7 +6340,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
@@ -6364,8 +6362,8 @@
     </row>
     <row r="5" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="22" t="s">
-        <v>80</v>
+      <c r="B5" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -6375,7 +6373,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
@@ -6397,8 +6395,8 @@
     </row>
     <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="22" t="s">
-        <v>85</v>
+      <c r="B6" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -6408,7 +6406,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -6430,8 +6428,8 @@
     </row>
     <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
-      <c r="B7" s="22" t="s">
-        <v>86</v>
+      <c r="B7" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -6441,7 +6439,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
@@ -6463,8 +6461,8 @@
     </row>
     <row r="8" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="22" t="s">
-        <v>81</v>
+      <c r="B8" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -6474,7 +6472,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -6496,8 +6494,8 @@
     </row>
     <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="22" t="s">
-        <v>82</v>
+      <c r="B9" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -6507,7 +6505,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
@@ -6530,7 +6528,7 @@
     <row r="10" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -6540,7 +6538,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -6563,7 +6561,7 @@
     <row r="11" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -6573,7 +6571,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -6595,10 +6593,10 @@
     </row>
     <row r="12" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="17">
         <v>6</v>
@@ -6621,10 +6619,10 @@
       <c r="I12" s="17">
         <v>6</v>
       </c>
-      <c r="J12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L12" s="17"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -6644,8 +6642,8 @@
     </row>
     <row r="13" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="22" t="s">
-        <v>40</v>
+      <c r="B13" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="17">
         <v>3</v>
@@ -6668,10 +6666,10 @@
       <c r="I13" s="17">
         <v>3</v>
       </c>
-      <c r="J13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L13" s="17"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -6691,8 +6689,8 @@
     </row>
     <row r="14" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="22" t="s">
-        <v>83</v>
+      <c r="B14" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="C14" s="17">
         <v>6</v>
@@ -6715,10 +6713,10 @@
       <c r="I14" s="17">
         <v>6</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L14" s="17"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -6738,8 +6736,8 @@
     </row>
     <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="22" t="s">
-        <v>84</v>
+      <c r="B15" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="C15" s="17">
         <v>2</v>
@@ -6762,10 +6760,10 @@
       <c r="I15" s="17">
         <v>2</v>
       </c>
-      <c r="J15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="2"/>
       <c r="N15" s="5"/>
@@ -6785,10 +6783,10 @@
     </row>
     <row r="16" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>77</v>
+        <v>45</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C16" s="17">
         <v>3</v>
@@ -6812,7 +6810,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -6835,7 +6833,7 @@
     <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="17">
         <v>4</v>
@@ -6860,7 +6858,7 @@
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="2"/>
@@ -7636,7 +7634,7 @@
     <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="17">
         <f>SUM(C3:C29)</f>
@@ -7670,7 +7668,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -7719,7 +7717,7 @@
     <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="9">
         <f>C44</f>
@@ -7800,7 +7798,7 @@
     <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="9">
         <v>6</v>
@@ -7832,7 +7830,7 @@
     </row>
     <row r="49" spans="2:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="9">
         <f>SUM(C44)/C48</f>

--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,6 +418,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +551,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -798,11 +800,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225033600"/>
-        <c:axId val="225047680"/>
+        <c:axId val="181644672"/>
+        <c:axId val="181658752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225033600"/>
+        <c:axId val="181644672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +842,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225047680"/>
+        <c:crossAx val="181658752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -848,7 +850,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225047680"/>
+        <c:axId val="181658752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -901,7 +903,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -936,7 +937,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225033600"/>
+        <c:crossAx val="181644672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -949,7 +950,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1235,11 +1235,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225656832"/>
-        <c:axId val="225658368"/>
+        <c:axId val="182272000"/>
+        <c:axId val="182273536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225656832"/>
+        <c:axId val="182272000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1277,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225658368"/>
+        <c:crossAx val="182273536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1285,7 +1285,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225658368"/>
+        <c:axId val="182273536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1373,7 +1373,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225656832"/>
+        <c:crossAx val="182272000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1542,19 +1542,19 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,11 +1672,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225489280"/>
-        <c:axId val="225490816"/>
+        <c:axId val="182104448"/>
+        <c:axId val="182105984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225489280"/>
+        <c:axId val="182104448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1714,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225490816"/>
+        <c:crossAx val="182105984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1722,7 +1722,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225490816"/>
+        <c:axId val="182105984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1810,7 +1810,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225489280"/>
+        <c:crossAx val="182104448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2488,22 +2488,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="6"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -4582,19 +4582,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -6174,7 +6174,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6186,19 +6186,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="7"/>
@@ -6276,19 +6276,19 @@
         <v>5</v>
       </c>
       <c r="E3" s="15">
-        <v>5</v>
-      </c>
-      <c r="F3" s="15">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15">
-        <v>5</v>
-      </c>
-      <c r="H3" s="15">
-        <v>5</v>
-      </c>
-      <c r="I3" s="15">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F3" s="16">
+        <v>3</v>
+      </c>
+      <c r="G3" s="16">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16">
+        <v>3</v>
+      </c>
+      <c r="I3" s="16">
+        <v>3</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>7</v>
@@ -6320,17 +6320,17 @@
       <c r="E4" s="15">
         <v>4</v>
       </c>
-      <c r="F4" s="15">
-        <v>4</v>
-      </c>
-      <c r="G4" s="15">
-        <v>4</v>
-      </c>
-      <c r="H4" s="15">
-        <v>4</v>
-      </c>
-      <c r="I4" s="15">
-        <v>4</v>
+      <c r="F4" s="16">
+        <v>2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>7</v>
@@ -6360,19 +6360,19 @@
         <v>3</v>
       </c>
       <c r="E5" s="15">
-        <v>3</v>
-      </c>
-      <c r="F5" s="15">
-        <v>3</v>
-      </c>
-      <c r="G5" s="15">
-        <v>3</v>
-      </c>
-      <c r="H5" s="15">
-        <v>3</v>
-      </c>
-      <c r="I5" s="15">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>7</v>
@@ -7607,23 +7607,23 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>

--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
   <si>
     <t>Users stories</t>
   </si>
@@ -252,12 +252,6 @@
     <t>Affichage des volcans et laves</t>
   </si>
   <si>
-    <t>Coder le magma</t>
-  </si>
-  <si>
-    <t>Affichage du magma</t>
-  </si>
-  <si>
     <t>Coder le feu</t>
   </si>
   <si>
@@ -277,6 +271,18 @@
   </si>
   <si>
     <t>Affichage des villages (option)</t>
+  </si>
+  <si>
+    <t>Coder l'obsidienne</t>
+  </si>
+  <si>
+    <t>Affichage de l'obsidienne</t>
+  </si>
+  <si>
+    <t>Coder la terre</t>
+  </si>
+  <si>
+    <t>Affichage de la terre</t>
   </si>
 </sst>
 </file>
@@ -367,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,6 +427,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,11 +812,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181644672"/>
-        <c:axId val="181658752"/>
+        <c:axId val="220503424"/>
+        <c:axId val="220517504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181644672"/>
+        <c:axId val="220503424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +854,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181658752"/>
+        <c:crossAx val="220517504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,7 +862,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181658752"/>
+        <c:axId val="220517504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -937,7 +949,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181644672"/>
+        <c:crossAx val="220503424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1021,7 +1033,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1235,11 +1246,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182272000"/>
-        <c:axId val="182273536"/>
+        <c:axId val="221130752"/>
+        <c:axId val="221132288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182272000"/>
+        <c:axId val="221130752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1288,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182273536"/>
+        <c:crossAx val="221132288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1285,7 +1296,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182273536"/>
+        <c:axId val="221132288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1338,7 +1349,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1373,7 +1383,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182272000"/>
+        <c:crossAx val="221130752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1386,7 +1396,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1536,25 +1545,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,22 +1639,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.833333333333336</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.666666666666671</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.500000000000007</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.333333333333343</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.166666666666677</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1672,11 +1681,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182104448"/>
-        <c:axId val="182105984"/>
+        <c:axId val="220963200"/>
+        <c:axId val="220964736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182104448"/>
+        <c:axId val="220963200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1723,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182105984"/>
+        <c:crossAx val="220964736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1722,7 +1731,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182105984"/>
+        <c:axId val="220964736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1810,7 +1819,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182104448"/>
+        <c:crossAx val="220963200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2488,22 +2497,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="6"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -4582,19 +4591,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -6174,7 +6183,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6186,19 +6195,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="7"/>
@@ -6279,22 +6288,22 @@
         <v>4</v>
       </c>
       <c r="F3" s="16">
-        <v>3</v>
-      </c>
-      <c r="G3" s="16">
-        <v>3</v>
-      </c>
-      <c r="H3" s="16">
-        <v>3</v>
-      </c>
-      <c r="I3" s="16">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -6321,22 +6330,22 @@
         <v>4</v>
       </c>
       <c r="F4" s="16">
-        <v>2</v>
-      </c>
-      <c r="G4" s="16">
-        <v>2</v>
-      </c>
-      <c r="H4" s="16">
-        <v>2</v>
-      </c>
-      <c r="I4" s="16">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -6363,22 +6372,22 @@
         <v>2</v>
       </c>
       <c r="F5" s="16">
-        <v>2</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2</v>
-      </c>
-      <c r="H5" s="16">
-        <v>2</v>
-      </c>
-      <c r="I5" s="16">
-        <v>2</v>
-      </c>
-      <c r="J5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -6393,7 +6402,7 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
@@ -6408,19 +6417,19 @@
         <v>4</v>
       </c>
       <c r="G6" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6" s="15">
-        <v>4</v>
-      </c>
-      <c r="J6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -6433,36 +6442,36 @@
       <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="18">
         <v>2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="18">
         <v>2</v>
       </c>
-      <c r="G7" s="15">
-        <v>2</v>
-      </c>
-      <c r="H7" s="15">
-        <v>2</v>
-      </c>
-      <c r="I7" s="15">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -6475,34 +6484,34 @@
       <c r="AA7" s="8"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5</v>
-      </c>
-      <c r="D8" s="15">
-        <v>5</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="R8" s="8"/>
@@ -6517,34 +6526,34 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="15">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20" t="s">
         <v>7</v>
       </c>
       <c r="R9" s="8"/>
@@ -6559,36 +6568,36 @@
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="5">
-        <v>8</v>
-      </c>
-      <c r="D10" s="15">
-        <v>8</v>
-      </c>
-      <c r="E10" s="15">
-        <v>8</v>
-      </c>
-      <c r="F10" s="15">
-        <v>8</v>
-      </c>
-      <c r="G10" s="15">
-        <v>8</v>
-      </c>
-      <c r="H10" s="15">
-        <v>8</v>
-      </c>
-      <c r="I10" s="15">
-        <v>8</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="18">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18">
+        <v>5</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -6601,36 +6610,36 @@
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="5">
-        <v>4</v>
-      </c>
-      <c r="D11" s="15">
-        <v>4</v>
-      </c>
-      <c r="E11" s="15">
-        <v>4</v>
-      </c>
-      <c r="F11" s="15">
-        <v>4</v>
-      </c>
-      <c r="G11" s="15">
-        <v>4</v>
-      </c>
-      <c r="H11" s="15">
-        <v>4</v>
-      </c>
-      <c r="I11" s="15">
-        <v>4</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -6643,38 +6652,36 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="18">
         <v>8</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="5">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
+      <c r="D12" s="18">
+        <v>8</v>
+      </c>
+      <c r="E12" s="18">
+        <v>8</v>
+      </c>
+      <c r="F12" s="18">
+        <v>8</v>
+      </c>
+      <c r="G12" s="18">
+        <v>8</v>
+      </c>
+      <c r="H12" s="18">
+        <v>8</v>
+      </c>
+      <c r="I12" s="18">
+        <v>8</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -6687,35 +6694,36 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
+      <c r="D13" s="18">
+        <v>4</v>
+      </c>
+      <c r="E13" s="18">
+        <v>4</v>
+      </c>
+      <c r="F13" s="18">
+        <v>4</v>
+      </c>
+      <c r="G13" s="18">
+        <v>4</v>
+      </c>
+      <c r="H13" s="18">
+        <v>4</v>
+      </c>
+      <c r="I13" s="18">
+        <v>4</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
@@ -6728,36 +6736,38 @@
       <c r="AA13" s="8"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="5">
+        <v>46</v>
+      </c>
+      <c r="C14" s="18">
         <v>6</v>
       </c>
-      <c r="D14" s="5">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5">
-        <v>6</v>
-      </c>
-      <c r="G14" s="5">
-        <v>6</v>
-      </c>
-      <c r="H14" s="5">
-        <v>6</v>
-      </c>
-      <c r="I14" s="5">
-        <v>6</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="5"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
@@ -6770,34 +6780,34 @@
       <c r="AA14" s="8"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="18">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="N15" s="8"/>
@@ -6815,38 +6825,36 @@
       <c r="AA15" s="8"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
-      <c r="E16" s="15">
-        <v>3</v>
-      </c>
-      <c r="F16" s="15">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5">
-        <v>3</v>
-      </c>
-      <c r="H16" s="5">
-        <v>3</v>
-      </c>
-      <c r="I16" s="5">
-        <v>3</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="18">
+        <v>6</v>
+      </c>
+      <c r="D16" s="18">
+        <v>6</v>
+      </c>
+      <c r="E16" s="18">
+        <v>6</v>
+      </c>
+      <c r="F16" s="18">
+        <v>6</v>
+      </c>
+      <c r="G16" s="18">
+        <v>6</v>
+      </c>
+      <c r="H16" s="18">
+        <v>6</v>
+      </c>
+      <c r="I16" s="18">
+        <v>6</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="18"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -6862,36 +6870,36 @@
       <c r="AA16" s="8"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="5">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4</v>
-      </c>
-      <c r="E17" s="5">
-        <v>4</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5">
-        <v>4</v>
-      </c>
-      <c r="H17" s="5">
-        <v>4</v>
-      </c>
-      <c r="I17" s="5">
-        <v>4</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="5"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -6907,16 +6915,36 @@
       <c r="AA17" s="8"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="15">
+        <v>3</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="N18" s="8"/>
@@ -6935,16 +6963,34 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5">
+        <v>4</v>
+      </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -7599,31 +7645,31 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(C3:C29)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -7672,27 +7718,27 @@
       </c>
       <c r="C46" s="5">
         <f>C44</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D46" s="5">
         <f>C46 - C49</f>
-        <v>50.833333333333336</v>
+        <v>52.5</v>
       </c>
       <c r="E46" s="5">
         <f>D46 - C49</f>
-        <v>40.666666666666671</v>
+        <v>42</v>
       </c>
       <c r="F46" s="5">
         <f>E46 - C49</f>
-        <v>30.500000000000007</v>
+        <v>31.5</v>
       </c>
       <c r="G46" s="5">
         <f>F46 - C49</f>
-        <v>20.333333333333343</v>
+        <v>21</v>
       </c>
       <c r="H46" s="5">
         <f>G46 - C49</f>
-        <v>10.166666666666677</v>
+        <v>10.5</v>
       </c>
       <c r="I46" s="5">
         <f>H46 - C49</f>
@@ -7748,7 +7794,7 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>
-        <v>10.166666666666666</v>
+        <v>10.5</v>
       </c>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>

--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="93">
   <si>
     <t>Users stories</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Coder les humains</t>
   </si>
   <si>
-    <t>Code les volcans</t>
-  </si>
-  <si>
     <t>Coder les laves</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>Vérifier les affichages</t>
   </si>
   <si>
-    <t>Météo</t>
-  </si>
-  <si>
     <t>Coder les villages (option)</t>
   </si>
   <si>
@@ -283,6 +277,33 @@
   </si>
   <si>
     <t>Affichage de la terre</t>
+  </si>
+  <si>
+    <t>Agents en feu</t>
+  </si>
+  <si>
+    <t>Affichage fluide du feu (suit l'agent)</t>
+  </si>
+  <si>
+    <t>Arbres et plantes en feu (et cactus)</t>
+  </si>
+  <si>
+    <t>Arbres brulés</t>
+  </si>
+  <si>
+    <t>Dégâts de feu aux agents</t>
+  </si>
+  <si>
+    <t>Catastrophes naturelles (Reporté)</t>
+  </si>
+  <si>
+    <t>Météo (Reporté)</t>
+  </si>
+  <si>
+    <t>Coder les volcans</t>
+  </si>
+  <si>
+    <t>Cycle de vie (Tectonique des plaques et apparition de terrain)</t>
   </si>
 </sst>
 </file>
@@ -373,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,6 +454,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,11 +836,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220503424"/>
-        <c:axId val="220517504"/>
+        <c:axId val="232697216"/>
+        <c:axId val="232711296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220503424"/>
+        <c:axId val="232697216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +878,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220517504"/>
+        <c:crossAx val="232711296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -862,7 +886,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220517504"/>
+        <c:axId val="232711296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -949,7 +973,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220503424"/>
+        <c:crossAx val="232697216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1246,11 +1270,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221130752"/>
-        <c:axId val="221132288"/>
+        <c:axId val="233320448"/>
+        <c:axId val="233321984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221130752"/>
+        <c:axId val="233320448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1312,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221132288"/>
+        <c:crossAx val="233321984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1296,7 +1320,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221132288"/>
+        <c:axId val="233321984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1383,7 +1407,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221130752"/>
+        <c:crossAx val="233320448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1545,25 +1569,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,22 +1663,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.5</c:v>
+                  <c:v>66.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>53.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>26.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.5</c:v>
+                  <c:v>13.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1681,11 +1705,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220963200"/>
-        <c:axId val="220964736"/>
+        <c:axId val="233152896"/>
+        <c:axId val="233154432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220963200"/>
+        <c:axId val="233152896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +1747,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220964736"/>
+        <c:crossAx val="233154432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1731,7 +1755,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220964736"/>
+        <c:axId val="233154432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1819,7 +1843,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220963200"/>
+        <c:crossAx val="233152896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2497,22 +2521,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
       <c r="M1" s="6"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -4591,19 +4615,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -6183,31 +6207,31 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
     <col min="4" max="1025" width="12.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="7"/>
@@ -6276,7 +6300,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -6318,7 +6342,7 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -6360,7 +6384,7 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
@@ -6402,7 +6426,7 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
@@ -6444,7 +6468,7 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="18">
         <v>2</v>
@@ -6486,7 +6510,7 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="20">
         <v>1</v>
@@ -6528,7 +6552,7 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="20">
         <v>1</v>
@@ -6570,7 +6594,7 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="18">
         <v>5</v>
@@ -6612,7 +6636,7 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="18">
         <v>2</v>
@@ -6654,7 +6678,7 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="18">
         <v>8</v>
@@ -6675,7 +6699,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>7</v>
@@ -6694,36 +6718,36 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="19">
         <v>4</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="19">
         <v>4</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="19">
         <v>4</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="19">
         <v>4</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="19">
         <v>4</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="19">
         <v>4</v>
       </c>
-      <c r="I13" s="18">
-        <v>4</v>
-      </c>
-      <c r="J13" s="18" t="s">
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
@@ -6736,36 +6760,34 @@
       <c r="AA13" s="8"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="18">
-        <v>6</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="20">
+        <v>2</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="8"/>
@@ -6781,33 +6803,33 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="18">
-        <v>3</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18" t="s">
+      <c r="B15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20" t="s">
         <v>7</v>
       </c>
       <c r="N15" s="8"/>
@@ -6825,36 +6847,36 @@
       <c r="AA15" s="8"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="18">
-        <v>6</v>
-      </c>
-      <c r="D16" s="18">
-        <v>6</v>
-      </c>
-      <c r="E16" s="18">
-        <v>6</v>
-      </c>
-      <c r="F16" s="18">
-        <v>6</v>
-      </c>
-      <c r="G16" s="18">
-        <v>6</v>
-      </c>
-      <c r="H16" s="18">
-        <v>6</v>
-      </c>
-      <c r="I16" s="18">
-        <v>6</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="20">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="18"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -6870,34 +6892,34 @@
       <c r="AA16" s="8"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="20">
         <v>2</v>
       </c>
-      <c r="D17" s="18">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0</v>
-      </c>
-      <c r="I17" s="18">
-        <v>0</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18" t="s">
+      <c r="D17" s="20">
+        <v>2</v>
+      </c>
+      <c r="E17" s="20">
+        <v>2</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20" t="s">
         <v>7</v>
       </c>
       <c r="N17" s="8"/>
@@ -6915,38 +6937,36 @@
       <c r="AA17" s="8"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3</v>
-      </c>
-      <c r="E18" s="15">
-        <v>3</v>
-      </c>
-      <c r="F18" s="15">
-        <v>3</v>
-      </c>
-      <c r="G18" s="5">
-        <v>3</v>
-      </c>
-      <c r="H18" s="5">
-        <v>3</v>
-      </c>
-      <c r="I18" s="5">
-        <v>3</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="20">
+        <v>8</v>
+      </c>
+      <c r="D18" s="20">
+        <v>8</v>
+      </c>
+      <c r="E18" s="20">
+        <v>8</v>
+      </c>
+      <c r="F18" s="20">
+        <v>8</v>
+      </c>
+      <c r="G18" s="20">
+        <v>2</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -6962,36 +6982,36 @@
       <c r="AA18" s="8"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="5">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5">
-        <v>4</v>
-      </c>
-      <c r="F19" s="5">
-        <v>4</v>
-      </c>
-      <c r="G19" s="5">
-        <v>4</v>
-      </c>
-      <c r="H19" s="5">
-        <v>4</v>
-      </c>
-      <c r="I19" s="5">
-        <v>4</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="20">
+        <v>2</v>
+      </c>
+      <c r="D19" s="20">
+        <v>2</v>
+      </c>
+      <c r="E19" s="20">
+        <v>2</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="5"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -7007,18 +7027,38 @@
       <c r="AA19" s="8"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="19">
+        <v>6</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -7034,18 +7074,36 @@
       <c r="AA20" s="8"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="19">
+        <v>3</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -7061,18 +7119,36 @@
       <c r="AA21" s="8"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="19">
+        <v>6</v>
+      </c>
+      <c r="D22" s="19">
+        <v>6</v>
+      </c>
+      <c r="E22" s="19">
+        <v>6</v>
+      </c>
+      <c r="F22" s="19">
+        <v>6</v>
+      </c>
+      <c r="G22" s="19">
+        <v>6</v>
+      </c>
+      <c r="H22" s="19">
+        <v>6</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -7088,18 +7164,36 @@
       <c r="AA22" s="8"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="18">
+        <v>2</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
@@ -7115,16 +7209,36 @@
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3</v>
+      </c>
+      <c r="E24" s="15">
+        <v>3</v>
+      </c>
+      <c r="F24" s="15">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>3</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="N24" s="8"/>
@@ -7143,15 +7257,33 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5">
+        <v>4</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="N25" s="8"/>
@@ -7645,23 +7777,23 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(C3:C29)</f>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
@@ -7669,7 +7801,7 @@
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -7718,27 +7850,27 @@
       </c>
       <c r="C46" s="5">
         <f>C44</f>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D46" s="5">
         <f>C46 - C49</f>
-        <v>52.5</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E46" s="5">
         <f>D46 - C49</f>
-        <v>42</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F46" s="5">
         <f>E46 - C49</f>
-        <v>31.5</v>
+        <v>40</v>
       </c>
       <c r="G46" s="5">
         <f>F46 - C49</f>
-        <v>21</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="H46" s="5">
         <f>G46 - C49</f>
-        <v>10.5</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I46" s="5">
         <f>H46 - C49</f>
@@ -7794,7 +7926,7 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>
-        <v>10.5</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
